--- a/sprint-planning/sprint-1/Group1_sprint_planning.xlsx
+++ b/sprint-planning/sprint-1/Group1_sprint_planning.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc2d6a19f994f39b/Documents/Concordia/5th semester/SOEN_341_Project/Group1-SOEN341_Project_F24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a351198208daf396/Documents/Concordia University/SOEN 341/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2800C1DE-2993-2240-AC40-BF17AFC4DF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C51BA6-C5F7-C34A-B217-E643BA7A915A}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{2800C1DE-2993-2240-AC40-BF17AFC4DF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAFEC378-29B3-44EB-8BFD-4EF0D2FCF12C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprints" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -32,8 +35,36 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue # </t>
+  </si>
   <si>
     <t>User story/Task title</t>
   </si>
@@ -41,58 +72,137 @@
     <t>Associated tasks/Task description</t>
   </si>
   <si>
-    <t xml:space="preserve">Issue # </t>
+    <t>Story points (1,2,3,5,8,13) / Time estimate</t>
+  </si>
+  <si>
+    <t>Priority (LOW, MED, HIGH)</t>
+  </si>
+  <si>
+    <t>Risk (LOW, MED, HIGH)</t>
   </si>
   <si>
     <t>Assigned to</t>
   </si>
   <si>
+    <t xml:space="preserve">Sprint due </t>
+  </si>
+  <si>
+    <t>US.01: Implement login page</t>
+  </si>
+  <si>
+    <t>-Create html login page,
+-Add login CSS styling,
+-Implement login page routes.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>High, main page of the system</t>
+  </si>
+  <si>
+    <t>Alessandro, Gregory</t>
+  </si>
+  <si>
+    <t>Task.01.01: Create login html page</t>
+  </si>
+  <si>
+    <t>Add basic HTML elements: form for inputting login information and a link to the registration page.</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Task.01.02: Add login page CSS styling</t>
+  </si>
+  <si>
+    <t>Style the divs, form, body, and other miscellaneous elements.</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Alessandro</t>
+  </si>
+  <si>
+    <t>Task.01.03: Implement login page routes</t>
+  </si>
+  <si>
+    <t>-Create the GET route to render the login page.
+-Create the POST route to handle authentication, redirecting the user to their respective dashboard upon success or back to the login page upon failure.</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>US.02: Implement registration page</t>
+  </si>
+  <si>
+    <t>-Create html register page,
+-Add register CSS styling,
+-Implement register page routes,
+-Create user model.</t>
+  </si>
+  <si>
+    <t>High, key user features to be built upon later</t>
+  </si>
+  <si>
+    <t>Task.02.01: Create register html page</t>
+  </si>
+  <si>
+    <t>Add basic HTML elements: form for inputting registration details and a link to the login page.</t>
+  </si>
+  <si>
+    <t>Task.02.02: Add register page CSS styling</t>
+  </si>
+  <si>
+    <t>Task.02.03: Implement register page routes</t>
+  </si>
+  <si>
+    <t>Task.02.04: Create user model</t>
+  </si>
+  <si>
+    <t>-Define the user schema with fields for username, password, and user type (student or instructor).
+ -Ensure user passwords are securely hashed upon registration.
+ -Associate each user with a unique ID to track them in the system.</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story points </t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
     <t>Risk</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story points </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint due </t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
+    <t>Sprint 3</t>
   </si>
   <si>
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Priority (LOW, MED, HIGH)</t>
-  </si>
-  <si>
-    <t>Risk (LOW, MED, HIGH)</t>
+    <t>Sprint Velocity:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,12 +267,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,185 +522,337 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="3" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">SUM(IF(LEFT(B3:B11,2)="US", D3:D11, 0))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -569,7 +862,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -579,7 +872,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -589,7 +882,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -599,38 +892,37 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -640,7 +932,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -650,7 +942,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -660,7 +952,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -670,7 +962,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -680,7 +972,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -690,7 +982,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -700,7 +992,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -710,7 +1002,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -720,7 +1012,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -730,37 +1022,38 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -770,7 +1063,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -780,7 +1073,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -790,7 +1083,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -800,38 +1093,37 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -841,7 +1133,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -851,7 +1143,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -861,7 +1153,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -871,7 +1163,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -881,7 +1173,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -891,7 +1183,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -901,7 +1193,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -911,7 +1203,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -921,7 +1213,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -931,37 +1223,38 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -971,7 +1264,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -981,7 +1274,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -991,7 +1284,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1001,38 +1294,37 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1042,7 +1334,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1052,7 +1344,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1062,7 +1354,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1072,7 +1364,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1082,7 +1374,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1092,7 +1384,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1102,7 +1394,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1112,7 +1404,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1122,7 +1414,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1132,76 +1424,6 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
